--- a/data/Steyn.xlsx
+++ b/data/Steyn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nanda\git\nandauforians.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4D7B1E-AAC9-4121-8156-E44A7AC340CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029113CB-6A83-4A9D-8951-41D3552F7A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7228" uniqueCount="2164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7228" uniqueCount="2167">
   <si>
     <t>TestMatchNumber</t>
   </si>
@@ -5071,9 +5071,6 @@
     <t>banged in, Amir throws up the hands, a kiss of the gloves and de Kock completes the catch! As thorough a bouncing out as you're likely to see... Steyn sent down a head-seeking missile, the ball just brushing the top hand as it flew through.</t>
   </si>
   <si>
-    <t>37.5</t>
-  </si>
-  <si>
     <t>Yasir Shah</t>
   </si>
   <si>
@@ -5099,9 +5096,6 @@
   </si>
   <si>
     <t>big appeal for catch behind. Wilson says not out. South Africa review. This short of a length ball jumps into Masood and cuts him in half. There's a sound as it passes him and sails over the stumps. QDK takes it down leg side...there is thigh guard on it. But was there an edge first? Ultra Edge awaited...a disturbance as it passes bat. Thin edge, thigh guard, and taken down leg. Decision overturned. Masood doesn't look happy about that. Big angry strides up the tunnel..</t>
-  </si>
-  <si>
-    <t>19.4</t>
   </si>
   <si>
     <t>13 Feb 2019</t>
@@ -7035,6 +7029,145 @@
         <family val="2"/>
       </rPr>
       <t> 394/6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>27.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOT 'IM! What a beauty from Hall, didn't swing like the earlier deliveries, Inzamam was forced to play it and feathered an edge through to Mark Boucher. Hall deserved that wicket and South Africa are now through the top order.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 81/5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fantastic reflex catch... Steyn dishes out a slower ball on the pads, O'Brien flicks uppishly, Amla at forward short-leg gets a hand to it, the ball rebounds off his palms and lobs up. He turns around quickly, takes it on the second attempt and the fielders celebrate. There's a bit of doubt as O'Brien stands his ground as he felt the ball hit Amla's visor before catching it. The third umpire finally rules him out.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 170/8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>55.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and he goes first ball! Steyn bowls it full in that channel outside off stump and O'Brien cant stop himself from having a flirt, edging to Gibbs at gully, moving to his left and taking an easy catch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 187/8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pitched up, scratchy drive from Imam - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and it's swallowed at third slip!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Steyn makes the breakthrough again, loose from Imam, there'll be no second-innings heroics from him. Full and tempting but he was on the move and totally off balance as he swiped at the ball</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 10/1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19.4 got him!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> In, in, in. One holds the line and gets Imam to defend inside the line. This was the reason he went around the wicket. Belts it in, short of a length in the corridor. Imam looks to defend the off stump ball and gets a tiny, faint edge. Not much he can do there. Was defending quite close to the body too. Falls after another good start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF48494A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 67/1</t>
     </r>
   </si>
 </sst>
@@ -7426,8 +7559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E343" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M349" sqref="M349"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7538,7 +7671,7 @@
         <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="R2" t="s">
         <v>30</v>
@@ -7591,10 +7724,10 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="Q3" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="R3" t="s">
         <v>30</v>
@@ -7647,7 +7780,7 @@
         <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
@@ -7703,7 +7836,7 @@
         <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="R5" t="s">
         <v>30</v>
@@ -7759,10 +7892,10 @@
         <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q6" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -7818,10 +7951,10 @@
         <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q7" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
@@ -7877,10 +8010,10 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q8" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
@@ -7936,10 +8069,10 @@
         <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q9" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
@@ -7995,10 +8128,10 @@
         <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q10" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="R10" t="s">
         <v>30</v>
@@ -8054,10 +8187,10 @@
         <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q11" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
@@ -8113,10 +8246,10 @@
         <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q12" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="R12" t="s">
         <v>30</v>
@@ -8172,10 +8305,10 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q13" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="R13" t="s">
         <v>30</v>
@@ -8231,10 +8364,10 @@
         <v>29</v>
       </c>
       <c r="P14" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q14" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="R14" t="s">
         <v>30</v>
@@ -8290,10 +8423,10 @@
         <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q15" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="R15" t="s">
         <v>30</v>
@@ -8349,7 +8482,7 @@
         <v>29</v>
       </c>
       <c r="Q16" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="R16" t="s">
         <v>30</v>
@@ -8405,10 +8538,10 @@
         <v>29</v>
       </c>
       <c r="P17" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q17" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="R17" t="s">
         <v>30</v>
@@ -8464,10 +8597,10 @@
         <v>29</v>
       </c>
       <c r="P18" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q18" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="R18" t="s">
         <v>30</v>
@@ -8523,10 +8656,10 @@
         <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q19" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="R19" t="s">
         <v>30</v>
@@ -8582,10 +8715,10 @@
         <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q20" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="R20" t="s">
         <v>30</v>
@@ -8641,7 +8774,7 @@
         <v>29</v>
       </c>
       <c r="Q21" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="R21" t="s">
         <v>30</v>
@@ -8697,7 +8830,7 @@
         <v>29</v>
       </c>
       <c r="Q22" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="R22" t="s">
         <v>30</v>
@@ -8753,10 +8886,10 @@
         <v>29</v>
       </c>
       <c r="P23" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q23" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="R23" t="s">
         <v>30</v>
@@ -8812,10 +8945,10 @@
         <v>29</v>
       </c>
       <c r="P24" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="Q24" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="R24" t="s">
         <v>30</v>
@@ -8871,10 +9004,10 @@
         <v>29</v>
       </c>
       <c r="P25" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q25" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="R25" t="s">
         <v>30</v>
@@ -8930,7 +9063,7 @@
         <v>29</v>
       </c>
       <c r="Q26" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="R26" t="s">
         <v>30</v>
@@ -8986,10 +9119,10 @@
         <v>29</v>
       </c>
       <c r="P27" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q27" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="R27" t="s">
         <v>30</v>
@@ -9045,7 +9178,7 @@
         <v>29</v>
       </c>
       <c r="Q28" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="R28" t="s">
         <v>30</v>
@@ -9098,10 +9231,10 @@
         <v>29</v>
       </c>
       <c r="P29" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="R29" t="s">
         <v>30</v>
@@ -9154,7 +9287,7 @@
         <v>29</v>
       </c>
       <c r="Q30" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="R30" t="s">
         <v>30</v>
@@ -9207,7 +9340,7 @@
         <v>29</v>
       </c>
       <c r="Q31" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="R31" t="s">
         <v>30</v>
@@ -9260,10 +9393,10 @@
         <v>29</v>
       </c>
       <c r="P32" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q32" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="R32" t="s">
         <v>30</v>
@@ -9316,10 +9449,10 @@
         <v>29</v>
       </c>
       <c r="P33" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q33" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="R33" t="s">
         <v>30</v>
@@ -9375,10 +9508,10 @@
         <v>29</v>
       </c>
       <c r="P34" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q34" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="R34" t="s">
         <v>30</v>
@@ -9434,7 +9567,7 @@
         <v>29</v>
       </c>
       <c r="Q35" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="R35" t="s">
         <v>30</v>
@@ -9490,10 +9623,10 @@
         <v>29</v>
       </c>
       <c r="P36" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q36" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="R36" t="s">
         <v>30</v>
@@ -9549,10 +9682,10 @@
         <v>29</v>
       </c>
       <c r="P37" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q37" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="R37" t="s">
         <v>30</v>
@@ -9608,10 +9741,10 @@
         <v>29</v>
       </c>
       <c r="P38" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q38" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="R38" t="s">
         <v>30</v>
@@ -9667,10 +9800,10 @@
         <v>29</v>
       </c>
       <c r="P39" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q39" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="R39" t="s">
         <v>30</v>
@@ -9726,10 +9859,10 @@
         <v>29</v>
       </c>
       <c r="P40" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q40" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="R40" t="s">
         <v>30</v>
@@ -9785,10 +9918,10 @@
         <v>29</v>
       </c>
       <c r="P41" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q41" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="R41" t="s">
         <v>30</v>
@@ -9844,7 +9977,7 @@
         <v>29</v>
       </c>
       <c r="Q42" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="R42" t="s">
         <v>30</v>
@@ -9893,17 +10026,23 @@
       <c r="M43" t="s">
         <v>242</v>
       </c>
+      <c r="N43" s="5" t="s">
+        <v>2162</v>
+      </c>
       <c r="O43" t="s">
         <v>29</v>
       </c>
       <c r="P43" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q43" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="R43" t="s">
         <v>30</v>
+      </c>
+      <c r="S43">
+        <v>27.4</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -9944,16 +10083,16 @@
         <v>248</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="O44" t="s">
         <v>29</v>
       </c>
       <c r="P44" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q44" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="R44" t="s">
         <v>30</v>
@@ -10006,13 +10145,13 @@
         <v>29</v>
       </c>
       <c r="Q45" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="R45" t="s">
         <v>30</v>
       </c>
-      <c r="S45" t="s">
-        <v>252</v>
+      <c r="S45">
+        <v>97.3</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -10059,7 +10198,7 @@
         <v>29</v>
       </c>
       <c r="Q46" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="R46" t="s">
         <v>30</v>
@@ -10112,10 +10251,10 @@
         <v>29</v>
       </c>
       <c r="P47" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q47" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="R47" t="s">
         <v>30</v>
@@ -10168,7 +10307,7 @@
         <v>29</v>
       </c>
       <c r="Q48" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R48" t="s">
         <v>30</v>
@@ -10221,7 +10360,7 @@
         <v>29</v>
       </c>
       <c r="Q49" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="R49" t="s">
         <v>30</v>
@@ -10274,10 +10413,10 @@
         <v>29</v>
       </c>
       <c r="P50" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q50" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="R50" t="s">
         <v>30</v>
@@ -10330,7 +10469,7 @@
         <v>29</v>
       </c>
       <c r="Q51" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="R51" t="s">
         <v>30</v>
@@ -10383,10 +10522,10 @@
         <v>29</v>
       </c>
       <c r="P52" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q52" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="R52" t="s">
         <v>30</v>
@@ -10442,7 +10581,7 @@
         <v>29</v>
       </c>
       <c r="Q53" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="R53" t="s">
         <v>30</v>
@@ -10498,7 +10637,7 @@
         <v>29</v>
       </c>
       <c r="Q54" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="R54" t="s">
         <v>30</v>
@@ -10554,10 +10693,10 @@
         <v>29</v>
       </c>
       <c r="P55" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q55" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="R55" t="s">
         <v>30</v>
@@ -10613,7 +10752,7 @@
         <v>29</v>
       </c>
       <c r="Q56" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="R56" t="s">
         <v>30</v>
@@ -10669,10 +10808,10 @@
         <v>29</v>
       </c>
       <c r="P57" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q57" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="R57" t="s">
         <v>30</v>
@@ -10728,10 +10867,10 @@
         <v>29</v>
       </c>
       <c r="P58" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q58" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="R58" t="s">
         <v>30</v>
@@ -10787,10 +10926,10 @@
         <v>29</v>
       </c>
       <c r="P59" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q59" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="R59" t="s">
         <v>30</v>
@@ -10846,10 +10985,10 @@
         <v>29</v>
       </c>
       <c r="P60" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q60" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="R60" t="s">
         <v>30</v>
@@ -10898,17 +11037,23 @@
       <c r="M61" t="s">
         <v>319</v>
       </c>
+      <c r="N61" s="5" t="s">
+        <v>2163</v>
+      </c>
       <c r="O61" t="s">
         <v>29</v>
       </c>
       <c r="P61" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q61" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="R61" t="s">
         <v>30</v>
+      </c>
+      <c r="S61">
+        <v>48.5</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -10958,13 +11103,13 @@
         <v>29</v>
       </c>
       <c r="Q62" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="R62" t="s">
         <v>30</v>
       </c>
-      <c r="S62" t="s">
-        <v>322</v>
+      <c r="S62">
+        <v>50.6</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -11014,10 +11159,10 @@
         <v>29</v>
       </c>
       <c r="P63" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q63" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="R63" t="s">
         <v>30</v>
@@ -11073,7 +11218,7 @@
         <v>29</v>
       </c>
       <c r="Q64" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="R64" t="s">
         <v>30</v>
@@ -11129,7 +11274,7 @@
         <v>29</v>
       </c>
       <c r="Q65" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="R65" t="s">
         <v>30</v>
@@ -11178,17 +11323,23 @@
       <c r="M66" t="s">
         <v>335</v>
       </c>
+      <c r="N66" s="5" t="s">
+        <v>2164</v>
+      </c>
       <c r="O66" t="s">
         <v>29</v>
       </c>
       <c r="P66" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q66" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="R66" t="s">
         <v>30</v>
+      </c>
+      <c r="S66">
+        <v>55.4</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -11238,7 +11389,7 @@
         <v>29</v>
       </c>
       <c r="Q67" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="R67" t="s">
         <v>30</v>
@@ -11294,7 +11445,7 @@
         <v>29</v>
       </c>
       <c r="Q68" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="R68" t="s">
         <v>30</v>
@@ -11350,7 +11501,7 @@
         <v>29</v>
       </c>
       <c r="Q69" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="R69" t="s">
         <v>30</v>
@@ -11406,10 +11557,10 @@
         <v>29</v>
       </c>
       <c r="P70" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q70" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="R70" t="s">
         <v>30</v>
@@ -11465,10 +11616,10 @@
         <v>29</v>
       </c>
       <c r="P71" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q71" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="R71" t="s">
         <v>30</v>
@@ -11514,6 +11665,9 @@
       <c r="M72" t="s">
         <v>353</v>
       </c>
+      <c r="N72" s="5" t="s">
+        <v>2164</v>
+      </c>
       <c r="O72" t="s">
         <v>29</v>
       </c>
@@ -11521,10 +11675,13 @@
         <v>29</v>
       </c>
       <c r="Q72" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="R72" t="s">
         <v>30</v>
+      </c>
+      <c r="S72">
+        <v>55.4</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -11571,10 +11728,10 @@
         <v>29</v>
       </c>
       <c r="P73" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q73" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="R73" t="s">
         <v>30</v>
@@ -11627,7 +11784,7 @@
         <v>29</v>
       </c>
       <c r="Q74" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="R74" t="s">
         <v>30</v>
@@ -11680,7 +11837,7 @@
         <v>29</v>
       </c>
       <c r="Q75" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="R75" t="s">
         <v>30</v>
@@ -11733,10 +11890,10 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q76" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="R76" t="s">
         <v>30</v>
@@ -11789,10 +11946,10 @@
         <v>29</v>
       </c>
       <c r="P77" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q77" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="R77" t="s">
         <v>30</v>
@@ -11848,10 +12005,10 @@
         <v>29</v>
       </c>
       <c r="P78" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q78" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="R78" t="s">
         <v>30</v>
@@ -11907,7 +12064,7 @@
         <v>29</v>
       </c>
       <c r="Q79" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="R79" t="s">
         <v>30</v>
@@ -11963,7 +12120,7 @@
         <v>29</v>
       </c>
       <c r="Q80" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="R80" t="s">
         <v>30</v>
@@ -12019,10 +12176,10 @@
         <v>29</v>
       </c>
       <c r="P81" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="Q81" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="R81" t="s">
         <v>30</v>
@@ -12078,10 +12235,10 @@
         <v>29</v>
       </c>
       <c r="P82" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q82" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="R82" t="s">
         <v>30</v>
@@ -12137,10 +12294,10 @@
         <v>29</v>
       </c>
       <c r="P83" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q83" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="R83" t="s">
         <v>30</v>
@@ -12196,10 +12353,10 @@
         <v>29</v>
       </c>
       <c r="P84" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q84" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="R84" t="s">
         <v>30</v>
@@ -12255,10 +12412,10 @@
         <v>29</v>
       </c>
       <c r="P85" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q85" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="R85" t="s">
         <v>30</v>
@@ -12314,10 +12471,10 @@
         <v>29</v>
       </c>
       <c r="P86" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q86" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="R86" t="s">
         <v>30</v>
@@ -12373,7 +12530,7 @@
         <v>29</v>
       </c>
       <c r="Q87" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="R87" t="s">
         <v>30</v>
@@ -12429,7 +12586,7 @@
         <v>29</v>
       </c>
       <c r="Q88" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="R88" t="s">
         <v>30</v>
@@ -12485,7 +12642,7 @@
         <v>29</v>
       </c>
       <c r="Q89" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="R89" t="s">
         <v>30</v>
@@ -12541,10 +12698,10 @@
         <v>29</v>
       </c>
       <c r="P90" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="Q90" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="R90" t="s">
         <v>30</v>
@@ -12600,7 +12757,7 @@
         <v>29</v>
       </c>
       <c r="Q91" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="R91" t="s">
         <v>30</v>
@@ -12656,7 +12813,7 @@
         <v>29</v>
       </c>
       <c r="Q92" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="R92" t="s">
         <v>30</v>
@@ -12665,7 +12822,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19</v>
       </c>
@@ -12712,10 +12869,10 @@
         <v>29</v>
       </c>
       <c r="P93" t="s">
-        <v>2153</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>1807</v>
+        <v>2151</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>1805</v>
       </c>
       <c r="R93" t="s">
         <v>30</v>
@@ -12724,7 +12881,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19</v>
       </c>
@@ -12771,10 +12928,10 @@
         <v>29</v>
       </c>
       <c r="P94" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>1808</v>
+        <v>2152</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>1806</v>
       </c>
       <c r="R94" t="s">
         <v>30</v>
@@ -12783,7 +12940,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19</v>
       </c>
@@ -12829,8 +12986,8 @@
       <c r="P95" t="s">
         <v>29</v>
       </c>
-      <c r="Q95" t="s">
-        <v>1809</v>
+      <c r="Q95" s="4" t="s">
+        <v>1807</v>
       </c>
       <c r="R95" t="s">
         <v>30</v>
@@ -12839,7 +12996,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19</v>
       </c>
@@ -12885,8 +13042,8 @@
       <c r="P96" t="s">
         <v>29</v>
       </c>
-      <c r="Q96" t="s">
-        <v>1810</v>
+      <c r="Q96" s="4" t="s">
+        <v>1808</v>
       </c>
       <c r="R96" t="s">
         <v>30</v>
@@ -12895,7 +13052,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19</v>
       </c>
@@ -12941,8 +13098,8 @@
       <c r="P97" t="s">
         <v>29</v>
       </c>
-      <c r="Q97" t="s">
-        <v>1811</v>
+      <c r="Q97" s="4" t="s">
+        <v>1809</v>
       </c>
       <c r="R97" t="s">
         <v>30</v>
@@ -12951,7 +13108,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>19</v>
       </c>
@@ -12997,8 +13154,8 @@
       <c r="P98" t="s">
         <v>29</v>
       </c>
-      <c r="Q98" t="s">
-        <v>1812</v>
+      <c r="Q98" s="4" t="s">
+        <v>1810</v>
       </c>
       <c r="R98" t="s">
         <v>30</v>
@@ -13007,7 +13164,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>19</v>
       </c>
@@ -13053,8 +13210,8 @@
       <c r="P99" t="s">
         <v>29</v>
       </c>
-      <c r="Q99" t="s">
-        <v>1813</v>
+      <c r="Q99" s="4" t="s">
+        <v>1811</v>
       </c>
       <c r="R99" t="s">
         <v>30</v>
@@ -13110,10 +13267,10 @@
         <v>29</v>
       </c>
       <c r="P100" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q100" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="R100" t="s">
         <v>30</v>
@@ -13169,10 +13326,10 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q101" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="R101" t="s">
         <v>30</v>
@@ -13228,10 +13385,10 @@
         <v>29</v>
       </c>
       <c r="P102" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q102" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="R102" t="s">
         <v>30</v>
@@ -13287,10 +13444,10 @@
         <v>29</v>
       </c>
       <c r="P103" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q103" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="R103" t="s">
         <v>30</v>
@@ -13346,10 +13503,10 @@
         <v>29</v>
       </c>
       <c r="P104" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q104" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="R104" t="s">
         <v>30</v>
@@ -13405,10 +13562,10 @@
         <v>29</v>
       </c>
       <c r="P105" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q105" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="R105" t="s">
         <v>30</v>
@@ -13464,10 +13621,10 @@
         <v>29</v>
       </c>
       <c r="P106" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q106" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="R106" t="s">
         <v>30</v>
@@ -13523,10 +13680,10 @@
         <v>29</v>
       </c>
       <c r="P107" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q107" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="R107" t="s">
         <v>30</v>
@@ -13582,7 +13739,7 @@
         <v>29</v>
       </c>
       <c r="Q108" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="R108" t="s">
         <v>30</v>
@@ -13638,7 +13795,7 @@
         <v>29</v>
       </c>
       <c r="Q109" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="R109" t="s">
         <v>30</v>
@@ -13694,7 +13851,7 @@
         <v>29</v>
       </c>
       <c r="Q110" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="R110" t="s">
         <v>30</v>
@@ -13750,7 +13907,7 @@
         <v>29</v>
       </c>
       <c r="Q111" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="R111" t="s">
         <v>30</v>
@@ -13806,7 +13963,7 @@
         <v>29</v>
       </c>
       <c r="Q112" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="R112" t="s">
         <v>30</v>
@@ -13862,7 +14019,7 @@
         <v>29</v>
       </c>
       <c r="Q113" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="R113" t="s">
         <v>30</v>
@@ -13918,10 +14075,10 @@
         <v>29</v>
       </c>
       <c r="P114" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q114" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="R114" t="s">
         <v>30</v>
@@ -13977,7 +14134,7 @@
         <v>29</v>
       </c>
       <c r="Q115" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="R115" t="s">
         <v>30</v>
@@ -14033,10 +14190,10 @@
         <v>29</v>
       </c>
       <c r="P116" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q116" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="R116" t="s">
         <v>30</v>
@@ -14092,7 +14249,7 @@
         <v>29</v>
       </c>
       <c r="Q117" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="R117" t="s">
         <v>30</v>
@@ -14148,10 +14305,10 @@
         <v>29</v>
       </c>
       <c r="P118" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q118" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="R118" t="s">
         <v>30</v>
@@ -14207,7 +14364,7 @@
         <v>29</v>
       </c>
       <c r="Q119" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="R119" t="s">
         <v>30</v>
@@ -14263,7 +14420,7 @@
         <v>29</v>
       </c>
       <c r="Q120" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="R120" t="s">
         <v>30</v>
@@ -14319,10 +14476,10 @@
         <v>29</v>
       </c>
       <c r="P121" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q121" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="R121" t="s">
         <v>30</v>
@@ -14378,7 +14535,7 @@
         <v>29</v>
       </c>
       <c r="Q122" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="R122" t="s">
         <v>30</v>
@@ -14434,10 +14591,10 @@
         <v>29</v>
       </c>
       <c r="P123" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q123" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="R123" t="s">
         <v>30</v>
@@ -14493,10 +14650,10 @@
         <v>29</v>
       </c>
       <c r="P124" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q124" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="R124" t="s">
         <v>30</v>
@@ -14552,10 +14709,10 @@
         <v>29</v>
       </c>
       <c r="P125" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q125" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="R125" t="s">
         <v>30</v>
@@ -14611,10 +14768,10 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q126" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="R126" t="s">
         <v>30</v>
@@ -14670,7 +14827,7 @@
         <v>29</v>
       </c>
       <c r="Q127" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="R127" t="s">
         <v>30</v>
@@ -14726,10 +14883,10 @@
         <v>29</v>
       </c>
       <c r="P128" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q128" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="R128" t="s">
         <v>30</v>
@@ -14785,7 +14942,7 @@
         <v>29</v>
       </c>
       <c r="Q129" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="R129" t="s">
         <v>30</v>
@@ -14838,7 +14995,7 @@
         <v>29</v>
       </c>
       <c r="Q130" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="R130" t="s">
         <v>30</v>
@@ -14891,10 +15048,10 @@
         <v>29</v>
       </c>
       <c r="P131" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q131" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="R131" t="s">
         <v>30</v>
@@ -14947,7 +15104,7 @@
         <v>29</v>
       </c>
       <c r="Q132" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="R132" t="s">
         <v>30</v>
@@ -15000,10 +15157,10 @@
         <v>29</v>
       </c>
       <c r="P133" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q133" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="R133" t="s">
         <v>30</v>
@@ -15056,10 +15213,10 @@
         <v>29</v>
       </c>
       <c r="P134" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q134" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="R134" t="s">
         <v>30</v>
@@ -15112,7 +15269,7 @@
         <v>29</v>
       </c>
       <c r="Q135" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="R135" t="s">
         <v>30</v>
@@ -15165,7 +15322,7 @@
         <v>29</v>
       </c>
       <c r="Q136" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="R136" t="s">
         <v>30</v>
@@ -15221,10 +15378,10 @@
         <v>29</v>
       </c>
       <c r="P137" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="R137" t="s">
         <v>30</v>
@@ -15280,10 +15437,10 @@
         <v>29</v>
       </c>
       <c r="P138" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="R138" t="s">
         <v>30</v>
@@ -15339,10 +15496,10 @@
         <v>29</v>
       </c>
       <c r="P139" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="R139" t="s">
         <v>30</v>
@@ -15398,10 +15555,10 @@
         <v>29</v>
       </c>
       <c r="P140" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="Q140" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="R140" t="s">
         <v>30</v>
@@ -15457,10 +15614,10 @@
         <v>29</v>
       </c>
       <c r="P141" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q141" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="R141" t="s">
         <v>30</v>
@@ -15516,7 +15673,7 @@
         <v>29</v>
       </c>
       <c r="Q142" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="R142" t="s">
         <v>30</v>
@@ -15572,10 +15729,10 @@
         <v>29</v>
       </c>
       <c r="P143" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q143" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="R143" t="s">
         <v>30</v>
@@ -15631,10 +15788,10 @@
         <v>29</v>
       </c>
       <c r="P144" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q144" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="R144" t="s">
         <v>30</v>
@@ -15690,7 +15847,7 @@
         <v>29</v>
       </c>
       <c r="Q145" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="R145" t="s">
         <v>30</v>
@@ -15746,10 +15903,10 @@
         <v>29</v>
       </c>
       <c r="P146" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q146" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="R146" t="s">
         <v>30</v>
@@ -15805,10 +15962,10 @@
         <v>29</v>
       </c>
       <c r="P147" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q147" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="R147" t="s">
         <v>30</v>
@@ -15864,10 +16021,10 @@
         <v>29</v>
       </c>
       <c r="P148" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q148" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="R148" t="s">
         <v>30</v>
@@ -15923,10 +16080,10 @@
         <v>29</v>
       </c>
       <c r="P149" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q149" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="R149" t="s">
         <v>30</v>
@@ -15982,10 +16139,10 @@
         <v>29</v>
       </c>
       <c r="P150" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q150" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="R150" t="s">
         <v>30</v>
@@ -16041,10 +16198,10 @@
         <v>162</v>
       </c>
       <c r="P151" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="R151" t="s">
         <v>30</v>
@@ -16100,7 +16257,7 @@
         <v>29</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="R152" t="s">
         <v>30</v>
@@ -16156,7 +16313,7 @@
         <v>29</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="R153" t="s">
         <v>30</v>
@@ -16212,10 +16369,10 @@
         <v>29</v>
       </c>
       <c r="P154" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="R154" t="s">
         <v>30</v>
@@ -16271,7 +16428,7 @@
         <v>29</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="R155" t="s">
         <v>30</v>
@@ -16327,10 +16484,10 @@
         <v>29</v>
       </c>
       <c r="P156" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="R156" t="s">
         <v>30</v>
@@ -16386,10 +16543,10 @@
         <v>29</v>
       </c>
       <c r="P157" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="R157" t="s">
         <v>30</v>
@@ -16445,10 +16602,10 @@
         <v>29</v>
       </c>
       <c r="P158" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="R158" t="s">
         <v>30</v>
@@ -16504,10 +16661,10 @@
         <v>29</v>
       </c>
       <c r="P159" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="R159" t="s">
         <v>30</v>
@@ -16563,7 +16720,7 @@
         <v>29</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="R160" t="s">
         <v>30</v>
@@ -16619,10 +16776,10 @@
         <v>29</v>
       </c>
       <c r="P161" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="R161" t="s">
         <v>30</v>
@@ -16678,10 +16835,10 @@
         <v>29</v>
       </c>
       <c r="P162" s="2" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="R162" s="2" t="s">
         <v>30</v>
@@ -16737,10 +16894,10 @@
         <v>29</v>
       </c>
       <c r="P163" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="R163" t="s">
         <v>30</v>
@@ -16796,10 +16953,10 @@
         <v>29</v>
       </c>
       <c r="P164" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="R164" t="s">
         <v>30</v>
@@ -16855,7 +17012,7 @@
         <v>29</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="R165" t="s">
         <v>30</v>
@@ -16911,7 +17068,7 @@
         <v>29</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="R166" t="s">
         <v>30</v>
@@ -16967,10 +17124,10 @@
         <v>29</v>
       </c>
       <c r="P167" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="R167" t="s">
         <v>30</v>
@@ -17026,10 +17183,10 @@
         <v>29</v>
       </c>
       <c r="P168" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="R168" t="s">
         <v>30</v>
@@ -17085,10 +17242,10 @@
         <v>29</v>
       </c>
       <c r="P169" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="R169" t="s">
         <v>30</v>
@@ -17144,10 +17301,10 @@
         <v>29</v>
       </c>
       <c r="P170" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="R170" t="s">
         <v>30</v>
@@ -17203,7 +17360,7 @@
         <v>29</v>
       </c>
       <c r="Q171" s="1" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="R171" t="s">
         <v>30</v>
@@ -17259,10 +17416,10 @@
         <v>29</v>
       </c>
       <c r="P172" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q172" s="1" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="R172" t="s">
         <v>30</v>
@@ -17318,10 +17475,10 @@
         <v>29</v>
       </c>
       <c r="P173" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="R173" t="s">
         <v>30</v>
@@ -17377,7 +17534,7 @@
         <v>29</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="R174" t="s">
         <v>30</v>
@@ -17433,10 +17590,10 @@
         <v>29</v>
       </c>
       <c r="P175" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="R175" t="s">
         <v>30</v>
@@ -17492,7 +17649,7 @@
         <v>29</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="R176" t="s">
         <v>30</v>
@@ -17548,7 +17705,7 @@
         <v>29</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="R177" t="s">
         <v>30</v>
@@ -17604,7 +17761,7 @@
         <v>29</v>
       </c>
       <c r="Q178" s="1" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="R178" t="s">
         <v>30</v>
@@ -17660,7 +17817,7 @@
         <v>29</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="R179" t="s">
         <v>30</v>
@@ -17716,10 +17873,10 @@
         <v>29</v>
       </c>
       <c r="P180" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="R180" t="s">
         <v>30</v>
@@ -17775,7 +17932,7 @@
         <v>29</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="R181" t="s">
         <v>30</v>
@@ -17831,10 +17988,10 @@
         <v>29</v>
       </c>
       <c r="P182" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="R182" t="s">
         <v>30</v>
@@ -17890,10 +18047,10 @@
         <v>29</v>
       </c>
       <c r="P183" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="R183" t="s">
         <v>30</v>
@@ -17949,10 +18106,10 @@
         <v>29</v>
       </c>
       <c r="P184" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="R184" t="s">
         <v>30</v>
@@ -18008,10 +18165,10 @@
         <v>29</v>
       </c>
       <c r="P185" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="R185" t="s">
         <v>30</v>
@@ -18067,10 +18224,10 @@
         <v>29</v>
       </c>
       <c r="P186" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q186" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="R186" t="s">
         <v>30</v>
@@ -18126,7 +18283,7 @@
         <v>29</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="R187" t="s">
         <v>30</v>
@@ -18182,10 +18339,10 @@
         <v>29</v>
       </c>
       <c r="P188" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q188" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="R188" t="s">
         <v>30</v>
@@ -18241,10 +18398,10 @@
         <v>29</v>
       </c>
       <c r="P189" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="R189" t="s">
         <v>30</v>
@@ -18300,7 +18457,7 @@
         <v>29</v>
       </c>
       <c r="Q190" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="R190" t="s">
         <v>30</v>
@@ -18356,7 +18513,7 @@
         <v>29</v>
       </c>
       <c r="Q191" s="1" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="R191" t="s">
         <v>30</v>
@@ -18412,7 +18569,7 @@
         <v>29</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="R192" t="s">
         <v>30</v>
@@ -18468,7 +18625,7 @@
         <v>29</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="R193" t="s">
         <v>30</v>
@@ -18524,10 +18681,10 @@
         <v>29</v>
       </c>
       <c r="P194" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q194" s="1" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="R194" t="s">
         <v>30</v>
@@ -18583,7 +18740,7 @@
         <v>29</v>
       </c>
       <c r="Q195" s="1" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="R195" t="s">
         <v>30</v>
@@ -18639,7 +18796,7 @@
         <v>29</v>
       </c>
       <c r="Q196" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="R196" t="s">
         <v>30</v>
@@ -18695,7 +18852,7 @@
         <v>29</v>
       </c>
       <c r="Q197" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="R197" t="s">
         <v>30</v>
@@ -18751,10 +18908,10 @@
         <v>29</v>
       </c>
       <c r="P198" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q198" s="4" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="R198" t="s">
         <v>30</v>
@@ -18810,7 +18967,7 @@
         <v>29</v>
       </c>
       <c r="Q199" s="4" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="R199" t="s">
         <v>30</v>
@@ -18866,7 +19023,7 @@
         <v>29</v>
       </c>
       <c r="Q200" s="4" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="R200" t="s">
         <v>30</v>
@@ -18922,7 +19079,7 @@
         <v>29</v>
       </c>
       <c r="Q201" s="4" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="R201" t="s">
         <v>30</v>
@@ -18978,7 +19135,7 @@
         <v>29</v>
       </c>
       <c r="Q202" s="4" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="R202" t="s">
         <v>30</v>
@@ -19034,10 +19191,10 @@
         <v>29</v>
       </c>
       <c r="P203" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q203" s="4" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="R203" t="s">
         <v>30</v>
@@ -19093,7 +19250,7 @@
         <v>29</v>
       </c>
       <c r="Q204" s="4" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="R204" t="s">
         <v>30</v>
@@ -19149,7 +19306,7 @@
         <v>29</v>
       </c>
       <c r="Q205" s="4" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="R205" t="s">
         <v>30</v>
@@ -19202,7 +19359,7 @@
         <v>29</v>
       </c>
       <c r="Q206" s="4" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="R206" t="s">
         <v>30</v>
@@ -19255,7 +19412,7 @@
         <v>29</v>
       </c>
       <c r="Q207" s="4" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="R207" t="s">
         <v>30</v>
@@ -19308,10 +19465,10 @@
         <v>29</v>
       </c>
       <c r="P208" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q208" s="4" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="R208" t="s">
         <v>30</v>
@@ -19364,10 +19521,10 @@
         <v>29</v>
       </c>
       <c r="P209" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q209" s="4" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="R209" t="s">
         <v>30</v>
@@ -19420,10 +19577,10 @@
         <v>29</v>
       </c>
       <c r="P210" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q210" s="4" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="R210" t="s">
         <v>30</v>
@@ -19476,10 +19633,10 @@
         <v>29</v>
       </c>
       <c r="P211" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q211" s="4" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="R211" t="s">
         <v>30</v>
@@ -19532,10 +19689,10 @@
         <v>29</v>
       </c>
       <c r="P212" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q212" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="R212" t="s">
         <v>30</v>
@@ -19588,10 +19745,10 @@
         <v>29</v>
       </c>
       <c r="P213" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q213" s="1" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="R213" t="s">
         <v>30</v>
@@ -19644,10 +19801,10 @@
         <v>29</v>
       </c>
       <c r="P214" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q214" s="1" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="R214" t="s">
         <v>30</v>
@@ -19700,7 +19857,7 @@
         <v>29</v>
       </c>
       <c r="Q215" s="1" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="R215" t="s">
         <v>30</v>
@@ -19753,10 +19910,10 @@
         <v>29</v>
       </c>
       <c r="P216" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="R216" t="s">
         <v>30</v>
@@ -19809,10 +19966,10 @@
         <v>29</v>
       </c>
       <c r="P217" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="R217" t="s">
         <v>30</v>
@@ -19856,7 +20013,7 @@
         <v>936</v>
       </c>
       <c r="N218" s="5" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="O218" t="s">
         <v>29</v>
@@ -19865,7 +20022,7 @@
         <v>29</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="R218" t="s">
         <v>30</v>
@@ -19921,10 +20078,10 @@
         <v>29</v>
       </c>
       <c r="P219" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="R219" t="s">
         <v>30</v>
@@ -19980,7 +20137,7 @@
         <v>29</v>
       </c>
       <c r="Q220" s="1" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="R220" t="s">
         <v>30</v>
@@ -20036,7 +20193,7 @@
         <v>29</v>
       </c>
       <c r="Q221" s="1" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="R221" t="s">
         <v>30</v>
@@ -20092,7 +20249,7 @@
         <v>29</v>
       </c>
       <c r="Q222" s="1" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="R222" t="s">
         <v>30</v>
@@ -20148,10 +20305,10 @@
         <v>29</v>
       </c>
       <c r="P223" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q223" s="1" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="R223" t="s">
         <v>30</v>
@@ -20207,10 +20364,10 @@
         <v>29</v>
       </c>
       <c r="P224" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q224" s="1" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="R224" t="s">
         <v>30</v>
@@ -20266,10 +20423,10 @@
         <v>29</v>
       </c>
       <c r="P225" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q225" s="1" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="R225" t="s">
         <v>30</v>
@@ -20325,10 +20482,10 @@
         <v>162</v>
       </c>
       <c r="P226" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q226" s="1" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="R226" t="s">
         <v>30</v>
@@ -20384,10 +20541,10 @@
         <v>29</v>
       </c>
       <c r="P227" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q227" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="R227" t="s">
         <v>30</v>
@@ -20443,10 +20600,10 @@
         <v>29</v>
       </c>
       <c r="P228" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q228" s="1" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="R228" t="s">
         <v>30</v>
@@ -20502,10 +20659,10 @@
         <v>29</v>
       </c>
       <c r="P229" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q229" s="1" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="R229" t="s">
         <v>30</v>
@@ -20561,10 +20718,10 @@
         <v>29</v>
       </c>
       <c r="P230" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q230" s="1" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="R230" t="s">
         <v>30</v>
@@ -20620,10 +20777,10 @@
         <v>29</v>
       </c>
       <c r="P231" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q231" s="1" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="R231" t="s">
         <v>30</v>
@@ -20679,10 +20836,10 @@
         <v>29</v>
       </c>
       <c r="P232" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q232" s="1" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="R232" t="s">
         <v>30</v>
@@ -20738,10 +20895,10 @@
         <v>29</v>
       </c>
       <c r="P233" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q233" s="1" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="R233" t="s">
         <v>30</v>
@@ -20797,10 +20954,10 @@
         <v>29</v>
       </c>
       <c r="P234" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q234" s="1" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="R234" t="s">
         <v>30</v>
@@ -20856,7 +21013,7 @@
         <v>29</v>
       </c>
       <c r="Q235" s="1" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="R235" t="s">
         <v>30</v>
@@ -20912,10 +21069,10 @@
         <v>29</v>
       </c>
       <c r="P236" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q236" s="1" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="R236" t="s">
         <v>30</v>
@@ -20971,10 +21128,10 @@
         <v>29</v>
       </c>
       <c r="P237" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q237" s="1" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="R237" t="s">
         <v>30</v>
@@ -21030,10 +21187,10 @@
         <v>29</v>
       </c>
       <c r="P238" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q238" s="1" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="R238" t="s">
         <v>30</v>
@@ -21089,10 +21246,10 @@
         <v>29</v>
       </c>
       <c r="P239" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q239" s="1" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="R239" t="s">
         <v>30</v>
@@ -21148,10 +21305,10 @@
         <v>29</v>
       </c>
       <c r="P240" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q240" s="1" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="R240" t="s">
         <v>30</v>
@@ -21207,7 +21364,7 @@
         <v>29</v>
       </c>
       <c r="Q241" s="1" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="R241" t="s">
         <v>30</v>
@@ -21263,7 +21420,7 @@
         <v>29</v>
       </c>
       <c r="Q242" s="1" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="R242" t="s">
         <v>30</v>
@@ -21319,10 +21476,10 @@
         <v>29</v>
       </c>
       <c r="P243" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q243" s="1" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="R243" t="s">
         <v>30</v>
@@ -21378,7 +21535,7 @@
         <v>29</v>
       </c>
       <c r="Q244" s="1" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="R244" t="s">
         <v>30</v>
@@ -21434,10 +21591,10 @@
         <v>29</v>
       </c>
       <c r="P245" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q245" s="1" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="R245" t="s">
         <v>30</v>
@@ -21493,7 +21650,7 @@
         <v>29</v>
       </c>
       <c r="Q246" s="1" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="R246" t="s">
         <v>30</v>
@@ -21549,7 +21706,7 @@
         <v>29</v>
       </c>
       <c r="Q247" s="1" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="R247" t="s">
         <v>30</v>
@@ -21605,7 +21762,7 @@
         <v>29</v>
       </c>
       <c r="Q248" s="1" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="R248" t="s">
         <v>30</v>
@@ -21661,10 +21818,10 @@
         <v>29</v>
       </c>
       <c r="P249" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q249" s="1" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="R249" t="s">
         <v>30</v>
@@ -21720,10 +21877,10 @@
         <v>29</v>
       </c>
       <c r="P250" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q250" s="1" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="R250" t="s">
         <v>30</v>
@@ -21779,10 +21936,10 @@
         <v>162</v>
       </c>
       <c r="P251" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q251" s="1" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="R251" t="s">
         <v>30</v>
@@ -21838,10 +21995,10 @@
         <v>29</v>
       </c>
       <c r="P252" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q252" s="1" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="R252" t="s">
         <v>30</v>
@@ -21897,7 +22054,7 @@
         <v>29</v>
       </c>
       <c r="Q253" s="1" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="R253" t="s">
         <v>30</v>
@@ -21953,7 +22110,7 @@
         <v>29</v>
       </c>
       <c r="Q254" s="1" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="R254" t="s">
         <v>30</v>
@@ -22009,10 +22166,10 @@
         <v>29</v>
       </c>
       <c r="P255" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q255" s="1" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="R255" t="s">
         <v>30</v>
@@ -22068,10 +22225,10 @@
         <v>29</v>
       </c>
       <c r="P256" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q256" s="1" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="R256" t="s">
         <v>30</v>
@@ -22127,10 +22284,10 @@
         <v>29</v>
       </c>
       <c r="P257" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="R257" t="s">
         <v>30</v>
@@ -22186,10 +22343,10 @@
         <v>29</v>
       </c>
       <c r="P258" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q258" s="1" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="R258" t="s">
         <v>30</v>
@@ -22245,10 +22402,10 @@
         <v>29</v>
       </c>
       <c r="P259" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q259" s="1" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="R259" t="s">
         <v>30</v>
@@ -22304,10 +22461,10 @@
         <v>29</v>
       </c>
       <c r="P260" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q260" s="1" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="R260" t="s">
         <v>30</v>
@@ -22363,10 +22520,10 @@
         <v>29</v>
       </c>
       <c r="P261" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q261" s="1" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="R261" t="s">
         <v>30</v>
@@ -22422,10 +22579,10 @@
         <v>29</v>
       </c>
       <c r="P262" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q262" s="1" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="R262" t="s">
         <v>30</v>
@@ -22481,10 +22638,10 @@
         <v>29</v>
       </c>
       <c r="P263" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q263" s="1" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="R263" t="s">
         <v>30</v>
@@ -22540,10 +22697,10 @@
         <v>29</v>
       </c>
       <c r="P264" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q264" s="1" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="R264" t="s">
         <v>30</v>
@@ -22596,7 +22753,7 @@
         <v>29</v>
       </c>
       <c r="Q265" s="1" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="R265" t="s">
         <v>30</v>
@@ -22649,10 +22806,10 @@
         <v>29</v>
       </c>
       <c r="P266" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q266" s="1" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="R266" t="s">
         <v>30</v>
@@ -22705,7 +22862,7 @@
         <v>29</v>
       </c>
       <c r="Q267" s="1" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="R267" t="s">
         <v>30</v>
@@ -22758,10 +22915,10 @@
         <v>29</v>
       </c>
       <c r="P268" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q268" s="1" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="R268" t="s">
         <v>30</v>
@@ -22814,10 +22971,10 @@
         <v>29</v>
       </c>
       <c r="P269" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q269" s="1" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="R269" t="s">
         <v>30</v>
@@ -22870,10 +23027,10 @@
         <v>29</v>
       </c>
       <c r="P270" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q270" s="1" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="R270" t="s">
         <v>30</v>
@@ -22926,7 +23083,7 @@
         <v>29</v>
       </c>
       <c r="Q271" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="R271" t="s">
         <v>30</v>
@@ -22982,10 +23139,10 @@
         <v>29</v>
       </c>
       <c r="P272" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q272" s="1" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="R272" t="s">
         <v>30</v>
@@ -23041,10 +23198,10 @@
         <v>29</v>
       </c>
       <c r="P273" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q273" s="1" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="R273" t="s">
         <v>30</v>
@@ -23100,7 +23257,7 @@
         <v>29</v>
       </c>
       <c r="Q274" s="1" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="R274" t="s">
         <v>30</v>
@@ -23156,10 +23313,10 @@
         <v>29</v>
       </c>
       <c r="P275" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q275" s="1" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="R275" t="s">
         <v>30</v>
@@ -23215,10 +23372,10 @@
         <v>162</v>
       </c>
       <c r="P276" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q276" s="1" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="R276" t="s">
         <v>30</v>
@@ -23274,7 +23431,7 @@
         <v>29</v>
       </c>
       <c r="Q277" s="1" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="R277" t="s">
         <v>30</v>
@@ -23330,10 +23487,10 @@
         <v>29</v>
       </c>
       <c r="P278" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q278" s="1" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="R278" t="s">
         <v>30</v>
@@ -23389,10 +23546,10 @@
         <v>29</v>
       </c>
       <c r="P279" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q279" s="1" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="R279" t="s">
         <v>30</v>
@@ -23448,10 +23605,10 @@
         <v>29</v>
       </c>
       <c r="P280" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q280" s="1" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="R280" t="s">
         <v>30</v>
@@ -23507,10 +23664,10 @@
         <v>29</v>
       </c>
       <c r="P281" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q281" s="1" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="R281" t="s">
         <v>30</v>
@@ -23566,10 +23723,10 @@
         <v>29</v>
       </c>
       <c r="P282" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q282" s="1" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="R282" t="s">
         <v>30</v>
@@ -23625,10 +23782,10 @@
         <v>29</v>
       </c>
       <c r="P283" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q283" s="1" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="R283" t="s">
         <v>30</v>
@@ -23684,7 +23841,7 @@
         <v>29</v>
       </c>
       <c r="Q284" s="1" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="R284" t="s">
         <v>30</v>
@@ -23740,10 +23897,10 @@
         <v>29</v>
       </c>
       <c r="P285" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q285" s="1" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="R285" t="s">
         <v>30</v>
@@ -23799,10 +23956,10 @@
         <v>29</v>
       </c>
       <c r="P286" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q286" s="1" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="R286" t="s">
         <v>30</v>
@@ -23858,10 +24015,10 @@
         <v>29</v>
       </c>
       <c r="P287" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q287" s="1" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="R287" t="s">
         <v>30</v>
@@ -23917,10 +24074,10 @@
         <v>29</v>
       </c>
       <c r="P288" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q288" s="1" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="R288" t="s">
         <v>30</v>
@@ -23973,10 +24130,10 @@
         <v>29</v>
       </c>
       <c r="P289" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q289" s="1" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="R289" t="s">
         <v>30</v>
@@ -24032,7 +24189,7 @@
         <v>29</v>
       </c>
       <c r="Q290" s="1" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="R290" t="s">
         <v>30</v>
@@ -24088,10 +24245,10 @@
         <v>29</v>
       </c>
       <c r="P291" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q291" s="1" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="R291" t="s">
         <v>30</v>
@@ -24147,7 +24304,7 @@
         <v>29</v>
       </c>
       <c r="Q292" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="R292" t="s">
         <v>30</v>
@@ -24203,7 +24360,7 @@
         <v>29</v>
       </c>
       <c r="Q293" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="R293" t="s">
         <v>30</v>
@@ -24259,10 +24416,10 @@
         <v>29</v>
       </c>
       <c r="P294" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q294" s="1" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="R294" t="s">
         <v>30</v>
@@ -24318,10 +24475,10 @@
         <v>29</v>
       </c>
       <c r="P295" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q295" s="1" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="R295" t="s">
         <v>30</v>
@@ -24377,10 +24534,10 @@
         <v>29</v>
       </c>
       <c r="P296" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q296" s="1" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="R296" t="s">
         <v>30</v>
@@ -24436,10 +24593,10 @@
         <v>29</v>
       </c>
       <c r="P297" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q297" s="1" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="R297" t="s">
         <v>30</v>
@@ -24495,10 +24652,10 @@
         <v>29</v>
       </c>
       <c r="P298" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q298" s="1" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="R298" t="s">
         <v>30</v>
@@ -24554,10 +24711,10 @@
         <v>29</v>
       </c>
       <c r="P299" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q299" s="1" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="R299" t="s">
         <v>30</v>
@@ -24613,10 +24770,10 @@
         <v>29</v>
       </c>
       <c r="P300" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q300" s="1" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="R300" t="s">
         <v>30</v>
@@ -24672,7 +24829,7 @@
         <v>29</v>
       </c>
       <c r="Q301" s="1" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="R301" t="s">
         <v>30</v>
@@ -24728,10 +24885,10 @@
         <v>29</v>
       </c>
       <c r="P302" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="Q302" s="1" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="R302" t="s">
         <v>30</v>
@@ -24787,10 +24944,10 @@
         <v>29</v>
       </c>
       <c r="P303" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q303" s="1" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="R303" t="s">
         <v>30</v>
@@ -24846,7 +25003,7 @@
         <v>29</v>
       </c>
       <c r="Q304" s="1" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="R304" t="s">
         <v>30</v>
@@ -24902,7 +25059,7 @@
         <v>29</v>
       </c>
       <c r="Q305" s="1" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="R305" t="s">
         <v>30</v>
@@ -24955,10 +25112,10 @@
         <v>29</v>
       </c>
       <c r="P306" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q306" s="1" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="R306" t="s">
         <v>30</v>
@@ -25011,10 +25168,10 @@
         <v>29</v>
       </c>
       <c r="P307" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q307" s="1" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="R307" t="s">
         <v>30</v>
@@ -25067,10 +25224,10 @@
         <v>29</v>
       </c>
       <c r="P308" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q308" s="1" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="R308" t="s">
         <v>30</v>
@@ -25123,7 +25280,7 @@
         <v>29</v>
       </c>
       <c r="Q309" s="1" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="R309" t="s">
         <v>30</v>
@@ -25176,7 +25333,7 @@
         <v>29</v>
       </c>
       <c r="Q310" s="1" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="R310" t="s">
         <v>30</v>
@@ -25229,7 +25386,7 @@
         <v>29</v>
       </c>
       <c r="Q311" s="1" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="R311" t="s">
         <v>30</v>
@@ -25282,10 +25439,10 @@
         <v>29</v>
       </c>
       <c r="P312" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q312" s="1" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="R312" t="s">
         <v>30</v>
@@ -25338,10 +25495,10 @@
         <v>29</v>
       </c>
       <c r="P313" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q313" s="1" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="R313" t="s">
         <v>30</v>
@@ -25397,10 +25554,10 @@
         <v>29</v>
       </c>
       <c r="P314" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q314" s="1" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="R314" t="s">
         <v>30</v>
@@ -25456,7 +25613,7 @@
         <v>29</v>
       </c>
       <c r="Q315" s="1" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="R315" t="s">
         <v>30</v>
@@ -25512,10 +25669,10 @@
         <v>29</v>
       </c>
       <c r="P316" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q316" s="1" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="R316" t="s">
         <v>30</v>
@@ -25571,10 +25728,10 @@
         <v>29</v>
       </c>
       <c r="P317" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q317" s="1" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="R317" t="s">
         <v>30</v>
@@ -25630,10 +25787,10 @@
         <v>29</v>
       </c>
       <c r="P318" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q318" s="1" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="R318" t="s">
         <v>30</v>
@@ -25689,10 +25846,10 @@
         <v>29</v>
       </c>
       <c r="P319" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q319" s="1" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="R319" t="s">
         <v>30</v>
@@ -25748,10 +25905,10 @@
         <v>29</v>
       </c>
       <c r="P320" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q320" s="1" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="R320" t="s">
         <v>30</v>
@@ -25807,10 +25964,10 @@
         <v>29</v>
       </c>
       <c r="P321" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q321" s="1" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="R321" t="s">
         <v>30</v>
@@ -25863,10 +26020,10 @@
         <v>29</v>
       </c>
       <c r="P322" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q322" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="R322" t="s">
         <v>30</v>
@@ -25922,10 +26079,10 @@
         <v>29</v>
       </c>
       <c r="P323" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q323" s="1" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="R323" t="s">
         <v>30</v>
@@ -25981,7 +26138,7 @@
         <v>29</v>
       </c>
       <c r="Q324" s="1" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="R324" t="s">
         <v>30</v>
@@ -26037,10 +26194,10 @@
         <v>29</v>
       </c>
       <c r="P325" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q325" s="1" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="R325" t="s">
         <v>30</v>
@@ -26096,7 +26253,7 @@
         <v>29</v>
       </c>
       <c r="Q326" s="1" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="R326" t="s">
         <v>30</v>
@@ -26152,7 +26309,7 @@
         <v>29</v>
       </c>
       <c r="Q327" s="1" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="R327" t="s">
         <v>30</v>
@@ -26208,10 +26365,10 @@
         <v>29</v>
       </c>
       <c r="P328" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q328" s="1" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="R328" t="s">
         <v>30</v>
@@ -26267,7 +26424,7 @@
         <v>29</v>
       </c>
       <c r="Q329" s="1" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="R329" t="s">
         <v>30</v>
@@ -26323,7 +26480,7 @@
         <v>29</v>
       </c>
       <c r="Q330" s="1" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="R330" t="s">
         <v>30</v>
@@ -26379,10 +26536,10 @@
         <v>29</v>
       </c>
       <c r="P331" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q331" s="1" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="R331" t="s">
         <v>30</v>
@@ -26438,7 +26595,7 @@
         <v>29</v>
       </c>
       <c r="Q332" s="1" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="R332" t="s">
         <v>30</v>
@@ -26494,10 +26651,10 @@
         <v>29</v>
       </c>
       <c r="P333" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q333" s="1" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="R333" t="s">
         <v>30</v>
@@ -26541,7 +26698,7 @@
         <v>1344</v>
       </c>
       <c r="N334" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="O334" t="s">
         <v>29</v>
@@ -26550,7 +26707,7 @@
         <v>29</v>
       </c>
       <c r="Q334" s="1" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="R334" t="s">
         <v>30</v>
@@ -26603,10 +26760,10 @@
         <v>29</v>
       </c>
       <c r="P335" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Q335" s="1" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="R335" t="s">
         <v>30</v>
@@ -26659,7 +26816,7 @@
         <v>29</v>
       </c>
       <c r="Q336" s="1" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="R336" t="s">
         <v>30</v>
@@ -26712,10 +26869,10 @@
         <v>29</v>
       </c>
       <c r="P337" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q337" s="1" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="R337" t="s">
         <v>30</v>
@@ -26768,10 +26925,10 @@
         <v>29</v>
       </c>
       <c r="P338" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="Q338" s="1" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="R338" t="s">
         <v>30</v>
@@ -26824,10 +26981,10 @@
         <v>29</v>
       </c>
       <c r="P339" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q339" s="1" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="R339" t="s">
         <v>30</v>
@@ -26880,7 +27037,7 @@
         <v>29</v>
       </c>
       <c r="Q340" s="1" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="R340" t="s">
         <v>30</v>
@@ -26933,7 +27090,7 @@
         <v>29</v>
       </c>
       <c r="Q341" s="1" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="R341" t="s">
         <v>30</v>
@@ -26989,10 +27146,10 @@
         <v>29</v>
       </c>
       <c r="P342" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="Q342" s="1" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="R342" t="s">
         <v>30</v>
@@ -27048,10 +27205,10 @@
         <v>29</v>
       </c>
       <c r="P343" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q343" s="1" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="R343" t="s">
         <v>30</v>
@@ -27107,10 +27264,10 @@
         <v>29</v>
       </c>
       <c r="P344" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q344" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="R344" t="s">
         <v>30</v>
@@ -27166,7 +27323,7 @@
         <v>29</v>
       </c>
       <c r="Q345" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="R345" t="s">
         <v>30</v>
@@ -27222,10 +27379,10 @@
         <v>29</v>
       </c>
       <c r="P346" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="Q346" s="1" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="R346" t="s">
         <v>30</v>
@@ -27281,10 +27438,10 @@
         <v>29</v>
       </c>
       <c r="P347" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q347" s="1" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="R347" t="s">
         <v>30</v>
@@ -27340,10 +27497,10 @@
         <v>29</v>
       </c>
       <c r="P348" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q348" s="1" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="R348" t="s">
         <v>30</v>
@@ -27399,10 +27556,10 @@
         <v>29</v>
       </c>
       <c r="P349" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q349" s="1" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="R349" t="s">
         <v>30</v>
@@ -27458,7 +27615,7 @@
         <v>29</v>
       </c>
       <c r="Q350" s="1" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="R350" t="s">
         <v>30</v>
@@ -27514,10 +27671,10 @@
         <v>162</v>
       </c>
       <c r="P351" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="Q351" s="3" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="R351" t="s">
         <v>30</v>
@@ -27526,7 +27683,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>70</v>
       </c>
@@ -27572,8 +27729,8 @@
       <c r="P352" t="s">
         <v>29</v>
       </c>
-      <c r="Q352" t="s">
-        <v>2064</v>
+      <c r="Q352" s="1" t="s">
+        <v>2062</v>
       </c>
       <c r="R352" t="s">
         <v>30</v>
@@ -27582,7 +27739,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>70</v>
       </c>
@@ -27629,10 +27786,10 @@
         <v>29</v>
       </c>
       <c r="P353" t="s">
-        <v>2156</v>
-      </c>
-      <c r="Q353" t="s">
-        <v>2065</v>
+        <v>2154</v>
+      </c>
+      <c r="Q353" s="1" t="s">
+        <v>2063</v>
       </c>
       <c r="R353" t="s">
         <v>30</v>
@@ -27641,7 +27798,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>70</v>
       </c>
@@ -27687,8 +27844,8 @@
       <c r="P354" t="s">
         <v>29</v>
       </c>
-      <c r="Q354" t="s">
-        <v>2066</v>
+      <c r="Q354" s="1" t="s">
+        <v>2064</v>
       </c>
       <c r="R354" t="s">
         <v>30</v>
@@ -27697,7 +27854,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>70</v>
       </c>
@@ -27743,8 +27900,8 @@
       <c r="P355" t="s">
         <v>29</v>
       </c>
-      <c r="Q355" t="s">
-        <v>2067</v>
+      <c r="Q355" s="1" t="s">
+        <v>2065</v>
       </c>
       <c r="R355" t="s">
         <v>30</v>
@@ -27753,7 +27910,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>70</v>
       </c>
@@ -27799,8 +27956,8 @@
       <c r="P356" t="s">
         <v>29</v>
       </c>
-      <c r="Q356" t="s">
-        <v>2068</v>
+      <c r="Q356" s="1" t="s">
+        <v>2066</v>
       </c>
       <c r="R356" t="s">
         <v>30</v>
@@ -27809,7 +27966,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>70</v>
       </c>
@@ -27856,10 +28013,10 @@
         <v>29</v>
       </c>
       <c r="P357" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q357" t="s">
-        <v>2069</v>
+        <v>2152</v>
+      </c>
+      <c r="Q357" s="1" t="s">
+        <v>2067</v>
       </c>
       <c r="R357" t="s">
         <v>30</v>
@@ -27868,7 +28025,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>71</v>
       </c>
@@ -27911,8 +28068,8 @@
       <c r="P358" t="s">
         <v>29</v>
       </c>
-      <c r="Q358" t="s">
-        <v>2070</v>
+      <c r="Q358" s="1" t="s">
+        <v>2068</v>
       </c>
       <c r="R358" t="s">
         <v>30</v>
@@ -27921,7 +28078,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>71</v>
       </c>
@@ -27965,10 +28122,10 @@
         <v>29</v>
       </c>
       <c r="P359" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q359" t="s">
-        <v>2071</v>
+        <v>2155</v>
+      </c>
+      <c r="Q359" s="1" t="s">
+        <v>2069</v>
       </c>
       <c r="R359" t="s">
         <v>30</v>
@@ -27977,7 +28134,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>71</v>
       </c>
@@ -28020,8 +28177,8 @@
       <c r="P360" t="s">
         <v>29</v>
       </c>
-      <c r="Q360" t="s">
-        <v>2072</v>
+      <c r="Q360" s="1" t="s">
+        <v>2070</v>
       </c>
       <c r="R360" t="s">
         <v>30</v>
@@ -28030,7 +28187,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>71</v>
       </c>
@@ -28073,8 +28230,8 @@
       <c r="P361" t="s">
         <v>29</v>
       </c>
-      <c r="Q361" t="s">
-        <v>2073</v>
+      <c r="Q361" s="1" t="s">
+        <v>2071</v>
       </c>
       <c r="R361" t="s">
         <v>30</v>
@@ -28083,7 +28240,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>71</v>
       </c>
@@ -28126,8 +28283,8 @@
       <c r="P362" t="s">
         <v>29</v>
       </c>
-      <c r="Q362" t="s">
-        <v>2074</v>
+      <c r="Q362" s="1" t="s">
+        <v>2072</v>
       </c>
       <c r="R362" t="s">
         <v>30</v>
@@ -28136,7 +28293,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>72</v>
       </c>
@@ -28183,10 +28340,10 @@
         <v>29</v>
       </c>
       <c r="P363" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q363" t="s">
-        <v>2075</v>
+        <v>2155</v>
+      </c>
+      <c r="Q363" s="1" t="s">
+        <v>2073</v>
       </c>
       <c r="R363" t="s">
         <v>30</v>
@@ -28195,7 +28352,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>73</v>
       </c>
@@ -28242,10 +28399,10 @@
         <v>29</v>
       </c>
       <c r="P364" t="s">
-        <v>2156</v>
-      </c>
-      <c r="Q364" t="s">
-        <v>2076</v>
+        <v>2154</v>
+      </c>
+      <c r="Q364" s="1" t="s">
+        <v>2074</v>
       </c>
       <c r="R364" t="s">
         <v>30</v>
@@ -28254,7 +28411,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>73</v>
       </c>
@@ -28300,8 +28457,8 @@
       <c r="P365" t="s">
         <v>29</v>
       </c>
-      <c r="Q365" t="s">
-        <v>2077</v>
+      <c r="Q365" s="1" t="s">
+        <v>2075</v>
       </c>
       <c r="R365" t="s">
         <v>30</v>
@@ -28310,7 +28467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>73</v>
       </c>
@@ -28357,10 +28514,10 @@
         <v>29</v>
       </c>
       <c r="P366" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q366" t="s">
-        <v>2078</v>
+        <v>2152</v>
+      </c>
+      <c r="Q366" s="1" t="s">
+        <v>2076</v>
       </c>
       <c r="R366" t="s">
         <v>30</v>
@@ -28369,7 +28526,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>73</v>
       </c>
@@ -28416,10 +28573,10 @@
         <v>29</v>
       </c>
       <c r="P367" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q367" t="s">
-        <v>2079</v>
+        <v>2153</v>
+      </c>
+      <c r="Q367" s="1" t="s">
+        <v>2077</v>
       </c>
       <c r="R367" t="s">
         <v>30</v>
@@ -28428,7 +28585,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>73</v>
       </c>
@@ -28475,10 +28632,10 @@
         <v>29</v>
       </c>
       <c r="P368" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q368" t="s">
-        <v>2080</v>
+        <v>2152</v>
+      </c>
+      <c r="Q368" s="1" t="s">
+        <v>2078</v>
       </c>
       <c r="R368" t="s">
         <v>30</v>
@@ -28487,7 +28644,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>73</v>
       </c>
@@ -28534,10 +28691,10 @@
         <v>29</v>
       </c>
       <c r="P369" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q369" t="s">
-        <v>2081</v>
+        <v>2152</v>
+      </c>
+      <c r="Q369" s="1" t="s">
+        <v>2079</v>
       </c>
       <c r="R369" t="s">
         <v>30</v>
@@ -28546,7 +28703,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>73</v>
       </c>
@@ -28593,10 +28750,10 @@
         <v>29</v>
       </c>
       <c r="P370" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q370" t="s">
-        <v>2082</v>
+        <v>2152</v>
+      </c>
+      <c r="Q370" s="1" t="s">
+        <v>2080</v>
       </c>
       <c r="R370" t="s">
         <v>30</v>
@@ -28605,7 +28762,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>73</v>
       </c>
@@ -28652,10 +28809,10 @@
         <v>29</v>
       </c>
       <c r="P371" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q371" t="s">
-        <v>2083</v>
+        <v>2152</v>
+      </c>
+      <c r="Q371" s="1" t="s">
+        <v>2081</v>
       </c>
       <c r="R371" t="s">
         <v>30</v>
@@ -28664,7 +28821,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>73</v>
       </c>
@@ -28711,10 +28868,10 @@
         <v>29</v>
       </c>
       <c r="P372" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q372" t="s">
-        <v>2084</v>
+        <v>2152</v>
+      </c>
+      <c r="Q372" s="1" t="s">
+        <v>2082</v>
       </c>
       <c r="R372" t="s">
         <v>30</v>
@@ -28723,7 +28880,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>74</v>
       </c>
@@ -28770,10 +28927,10 @@
         <v>29</v>
       </c>
       <c r="P373" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q373" t="s">
-        <v>2085</v>
+        <v>2152</v>
+      </c>
+      <c r="Q373" s="1" t="s">
+        <v>2083</v>
       </c>
       <c r="R373" t="s">
         <v>30</v>
@@ -28782,7 +28939,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>74</v>
       </c>
@@ -28829,10 +28986,10 @@
         <v>29</v>
       </c>
       <c r="P374" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q374" t="s">
-        <v>2086</v>
+        <v>2153</v>
+      </c>
+      <c r="Q374" s="1" t="s">
+        <v>2084</v>
       </c>
       <c r="R374" t="s">
         <v>30</v>
@@ -28841,7 +28998,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>74</v>
       </c>
@@ -28888,10 +29045,10 @@
         <v>29</v>
       </c>
       <c r="P375" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q375" t="s">
-        <v>2087</v>
+        <v>2152</v>
+      </c>
+      <c r="Q375" s="1" t="s">
+        <v>2085</v>
       </c>
       <c r="R375" t="s">
         <v>30</v>
@@ -28900,7 +29057,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>74</v>
       </c>
@@ -28947,10 +29104,10 @@
         <v>162</v>
       </c>
       <c r="P376" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q376" t="s">
-        <v>2088</v>
+        <v>2152</v>
+      </c>
+      <c r="Q376" s="1" t="s">
+        <v>2086</v>
       </c>
       <c r="R376" t="s">
         <v>30</v>
@@ -28959,7 +29116,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>75</v>
       </c>
@@ -29003,10 +29160,10 @@
         <v>29</v>
       </c>
       <c r="P377" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q377" t="s">
-        <v>2089</v>
+        <v>2155</v>
+      </c>
+      <c r="Q377" s="1" t="s">
+        <v>2087</v>
       </c>
       <c r="R377" t="s">
         <v>30</v>
@@ -29015,7 +29172,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>75</v>
       </c>
@@ -29059,10 +29216,10 @@
         <v>29</v>
       </c>
       <c r="P378" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q378" t="s">
-        <v>2090</v>
+        <v>2152</v>
+      </c>
+      <c r="Q378" s="1" t="s">
+        <v>2088</v>
       </c>
       <c r="R378" t="s">
         <v>30</v>
@@ -29071,7 +29228,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>75</v>
       </c>
@@ -29114,8 +29271,8 @@
       <c r="P379" t="s">
         <v>29</v>
       </c>
-      <c r="Q379" t="s">
-        <v>2091</v>
+      <c r="Q379" s="1" t="s">
+        <v>2089</v>
       </c>
       <c r="R379" t="s">
         <v>30</v>
@@ -29124,7 +29281,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>75</v>
       </c>
@@ -29168,10 +29325,10 @@
         <v>29</v>
       </c>
       <c r="P380" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q380" t="s">
-        <v>2092</v>
+        <v>2152</v>
+      </c>
+      <c r="Q380" s="1" t="s">
+        <v>2090</v>
       </c>
       <c r="R380" t="s">
         <v>30</v>
@@ -29180,7 +29337,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>75</v>
       </c>
@@ -29224,10 +29381,10 @@
         <v>29</v>
       </c>
       <c r="P381" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q381" t="s">
-        <v>2093</v>
+        <v>2152</v>
+      </c>
+      <c r="Q381" s="4" t="s">
+        <v>2091</v>
       </c>
       <c r="R381" t="s">
         <v>30</v>
@@ -29236,7 +29393,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>75</v>
       </c>
@@ -29279,8 +29436,8 @@
       <c r="P382" t="s">
         <v>29</v>
       </c>
-      <c r="Q382" t="s">
-        <v>2094</v>
+      <c r="Q382" s="1" t="s">
+        <v>2092</v>
       </c>
       <c r="R382" t="s">
         <v>30</v>
@@ -29289,7 +29446,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>75</v>
       </c>
@@ -29333,10 +29490,10 @@
         <v>29</v>
       </c>
       <c r="P383" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q383" t="s">
-        <v>2095</v>
+        <v>2152</v>
+      </c>
+      <c r="Q383" s="1" t="s">
+        <v>2093</v>
       </c>
       <c r="R383" t="s">
         <v>30</v>
@@ -29345,7 +29502,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>75</v>
       </c>
@@ -29388,8 +29545,8 @@
       <c r="P384" t="s">
         <v>29</v>
       </c>
-      <c r="Q384" t="s">
-        <v>2096</v>
+      <c r="Q384" s="1" t="s">
+        <v>2094</v>
       </c>
       <c r="R384" t="s">
         <v>30</v>
@@ -29398,7 +29555,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>76</v>
       </c>
@@ -29445,10 +29602,10 @@
         <v>29</v>
       </c>
       <c r="P385" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q385" t="s">
-        <v>2097</v>
+        <v>2152</v>
+      </c>
+      <c r="Q385" s="1" t="s">
+        <v>2095</v>
       </c>
       <c r="R385" t="s">
         <v>30</v>
@@ -29457,7 +29614,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>76</v>
       </c>
@@ -29504,10 +29661,10 @@
         <v>29</v>
       </c>
       <c r="P386" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q386" t="s">
-        <v>2098</v>
+        <v>2152</v>
+      </c>
+      <c r="Q386" s="1" t="s">
+        <v>2096</v>
       </c>
       <c r="R386" t="s">
         <v>30</v>
@@ -29516,7 +29673,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>76</v>
       </c>
@@ -29563,10 +29720,10 @@
         <v>29</v>
       </c>
       <c r="P387" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q387" t="s">
-        <v>2099</v>
+        <v>2153</v>
+      </c>
+      <c r="Q387" s="1" t="s">
+        <v>2097</v>
       </c>
       <c r="R387" t="s">
         <v>30</v>
@@ -29575,7 +29732,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>76</v>
       </c>
@@ -29622,10 +29779,10 @@
         <v>29</v>
       </c>
       <c r="P388" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q388" t="s">
-        <v>2100</v>
+        <v>2152</v>
+      </c>
+      <c r="Q388" s="1" t="s">
+        <v>2098</v>
       </c>
       <c r="R388" t="s">
         <v>30</v>
@@ -29634,7 +29791,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>76</v>
       </c>
@@ -29681,10 +29838,10 @@
         <v>29</v>
       </c>
       <c r="P389" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q389" t="s">
-        <v>2101</v>
+        <v>2155</v>
+      </c>
+      <c r="Q389" s="1" t="s">
+        <v>2099</v>
       </c>
       <c r="R389" t="s">
         <v>30</v>
@@ -29693,7 +29850,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>76</v>
       </c>
@@ -29740,10 +29897,10 @@
         <v>29</v>
       </c>
       <c r="P390" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q390" t="s">
-        <v>2102</v>
+        <v>2153</v>
+      </c>
+      <c r="Q390" s="1" t="s">
+        <v>2100</v>
       </c>
       <c r="R390" t="s">
         <v>30</v>
@@ -29752,7 +29909,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>78</v>
       </c>
@@ -29799,10 +29956,10 @@
         <v>29</v>
       </c>
       <c r="P391" t="s">
-        <v>2158</v>
-      </c>
-      <c r="Q391" t="s">
-        <v>2103</v>
+        <v>2156</v>
+      </c>
+      <c r="Q391" s="1" t="s">
+        <v>2101</v>
       </c>
       <c r="R391" t="s">
         <v>30</v>
@@ -29811,7 +29968,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>78</v>
       </c>
@@ -29858,10 +30015,10 @@
         <v>29</v>
       </c>
       <c r="P392" t="s">
-        <v>2153</v>
-      </c>
-      <c r="Q392" t="s">
-        <v>2104</v>
+        <v>2151</v>
+      </c>
+      <c r="Q392" s="1" t="s">
+        <v>2102</v>
       </c>
       <c r="R392" t="s">
         <v>30</v>
@@ -29870,7 +30027,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>78</v>
       </c>
@@ -29916,8 +30073,8 @@
       <c r="P393" t="s">
         <v>29</v>
       </c>
-      <c r="Q393" t="s">
-        <v>2105</v>
+      <c r="Q393" s="1" t="s">
+        <v>2103</v>
       </c>
       <c r="R393" t="s">
         <v>30</v>
@@ -29926,7 +30083,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>78</v>
       </c>
@@ -29973,10 +30130,10 @@
         <v>29</v>
       </c>
       <c r="P394" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q394" t="s">
-        <v>2106</v>
+        <v>2153</v>
+      </c>
+      <c r="Q394" s="1" t="s">
+        <v>2104</v>
       </c>
       <c r="R394" t="s">
         <v>30</v>
@@ -29985,7 +30142,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>78</v>
       </c>
@@ -30031,8 +30188,8 @@
       <c r="P395" t="s">
         <v>29</v>
       </c>
-      <c r="Q395" t="s">
-        <v>2107</v>
+      <c r="Q395" s="1" t="s">
+        <v>2105</v>
       </c>
       <c r="R395" t="s">
         <v>30</v>
@@ -30041,7 +30198,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>78</v>
       </c>
@@ -30088,10 +30245,10 @@
         <v>29</v>
       </c>
       <c r="P396" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q396" t="s">
-        <v>2108</v>
+        <v>2153</v>
+      </c>
+      <c r="Q396" s="1" t="s">
+        <v>2106</v>
       </c>
       <c r="R396" t="s">
         <v>30</v>
@@ -30100,7 +30257,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>78</v>
       </c>
@@ -30147,10 +30304,10 @@
         <v>29</v>
       </c>
       <c r="P397" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q397" t="s">
-        <v>2109</v>
+        <v>2152</v>
+      </c>
+      <c r="Q397" s="1" t="s">
+        <v>2107</v>
       </c>
       <c r="R397" t="s">
         <v>30</v>
@@ -30159,7 +30316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>79</v>
       </c>
@@ -30205,8 +30362,8 @@
       <c r="P398" t="s">
         <v>29</v>
       </c>
-      <c r="Q398" t="s">
-        <v>2110</v>
+      <c r="Q398" s="1" t="s">
+        <v>2108</v>
       </c>
       <c r="R398" t="s">
         <v>30</v>
@@ -30215,7 +30372,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>79</v>
       </c>
@@ -30262,10 +30419,10 @@
         <v>29</v>
       </c>
       <c r="P399" t="s">
-        <v>2158</v>
-      </c>
-      <c r="Q399" t="s">
-        <v>2111</v>
+        <v>2156</v>
+      </c>
+      <c r="Q399" s="1" t="s">
+        <v>2109</v>
       </c>
       <c r="R399" t="s">
         <v>30</v>
@@ -30274,7 +30431,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>79</v>
       </c>
@@ -30321,10 +30478,10 @@
         <v>29</v>
       </c>
       <c r="P400" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q400" t="s">
-        <v>2112</v>
+        <v>2153</v>
+      </c>
+      <c r="Q400" s="1" t="s">
+        <v>2110</v>
       </c>
       <c r="R400" t="s">
         <v>30</v>
@@ -30333,7 +30490,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>80</v>
       </c>
@@ -30380,10 +30537,10 @@
         <v>162</v>
       </c>
       <c r="P401" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q401" t="s">
-        <v>2113</v>
+        <v>2155</v>
+      </c>
+      <c r="Q401" s="1" t="s">
+        <v>2111</v>
       </c>
       <c r="R401" t="s">
         <v>30</v>
@@ -30392,7 +30549,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>80</v>
       </c>
@@ -30439,10 +30596,10 @@
         <v>29</v>
       </c>
       <c r="P402" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q402" t="s">
-        <v>2114</v>
+        <v>2153</v>
+      </c>
+      <c r="Q402" s="1" t="s">
+        <v>2112</v>
       </c>
       <c r="R402" t="s">
         <v>30</v>
@@ -30451,7 +30608,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>80</v>
       </c>
@@ -30497,8 +30654,8 @@
       <c r="P403" t="s">
         <v>29</v>
       </c>
-      <c r="Q403" t="s">
-        <v>2115</v>
+      <c r="Q403" s="1" t="s">
+        <v>2113</v>
       </c>
       <c r="R403" t="s">
         <v>30</v>
@@ -30507,7 +30664,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>82</v>
       </c>
@@ -30554,10 +30711,10 @@
         <v>29</v>
       </c>
       <c r="P404" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q404" t="s">
-        <v>2116</v>
+        <v>2155</v>
+      </c>
+      <c r="Q404" s="1" t="s">
+        <v>2114</v>
       </c>
       <c r="R404" t="s">
         <v>30</v>
@@ -30566,7 +30723,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>82</v>
       </c>
@@ -30613,10 +30770,10 @@
         <v>29</v>
       </c>
       <c r="P405" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q405" t="s">
-        <v>2117</v>
+        <v>2152</v>
+      </c>
+      <c r="Q405" s="1" t="s">
+        <v>2115</v>
       </c>
       <c r="R405" t="s">
         <v>30</v>
@@ -30625,7 +30782,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>82</v>
       </c>
@@ -30672,10 +30829,10 @@
         <v>29</v>
       </c>
       <c r="P406" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q406" t="s">
-        <v>2118</v>
+        <v>2152</v>
+      </c>
+      <c r="Q406" s="1" t="s">
+        <v>2116</v>
       </c>
       <c r="R406" t="s">
         <v>30</v>
@@ -30684,7 +30841,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>82</v>
       </c>
@@ -30730,8 +30887,8 @@
       <c r="P407" t="s">
         <v>29</v>
       </c>
-      <c r="Q407" t="s">
-        <v>2119</v>
+      <c r="Q407" s="1" t="s">
+        <v>2117</v>
       </c>
       <c r="R407" t="s">
         <v>30</v>
@@ -30740,7 +30897,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>83</v>
       </c>
@@ -30787,10 +30944,10 @@
         <v>29</v>
       </c>
       <c r="P408" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q408" t="s">
-        <v>2120</v>
+        <v>2155</v>
+      </c>
+      <c r="Q408" s="1" t="s">
+        <v>2118</v>
       </c>
       <c r="R408" t="s">
         <v>30</v>
@@ -30799,7 +30956,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>83</v>
       </c>
@@ -30845,8 +31002,8 @@
       <c r="P409" t="s">
         <v>29</v>
       </c>
-      <c r="Q409" t="s">
-        <v>2121</v>
+      <c r="Q409" s="1" t="s">
+        <v>2119</v>
       </c>
       <c r="R409" t="s">
         <v>30</v>
@@ -30855,7 +31012,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>84</v>
       </c>
@@ -30902,10 +31059,10 @@
         <v>29</v>
       </c>
       <c r="P410" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q410" t="s">
-        <v>2122</v>
+        <v>2152</v>
+      </c>
+      <c r="Q410" s="1" t="s">
+        <v>2120</v>
       </c>
       <c r="R410" t="s">
         <v>30</v>
@@ -30914,7 +31071,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>84</v>
       </c>
@@ -30961,10 +31118,10 @@
         <v>29</v>
       </c>
       <c r="P411" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q411" t="s">
-        <v>2123</v>
+        <v>2152</v>
+      </c>
+      <c r="Q411" s="1" t="s">
+        <v>2121</v>
       </c>
       <c r="R411" t="s">
         <v>30</v>
@@ -30973,7 +31130,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>84</v>
       </c>
@@ -31020,10 +31177,10 @@
         <v>29</v>
       </c>
       <c r="P412" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q412" t="s">
-        <v>2124</v>
+        <v>2152</v>
+      </c>
+      <c r="Q412" s="1" t="s">
+        <v>2122</v>
       </c>
       <c r="R412" t="s">
         <v>30</v>
@@ -31032,7 +31189,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>84</v>
       </c>
@@ -31078,8 +31235,8 @@
       <c r="P413" t="s">
         <v>29</v>
       </c>
-      <c r="Q413" t="s">
-        <v>2125</v>
+      <c r="Q413" s="1" t="s">
+        <v>2123</v>
       </c>
       <c r="R413" t="s">
         <v>30</v>
@@ -31088,7 +31245,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>84</v>
       </c>
@@ -31135,10 +31292,10 @@
         <v>29</v>
       </c>
       <c r="P414" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q414" t="s">
-        <v>2126</v>
+        <v>2155</v>
+      </c>
+      <c r="Q414" s="1" t="s">
+        <v>2124</v>
       </c>
       <c r="R414" t="s">
         <v>30</v>
@@ -31147,7 +31304,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>84</v>
       </c>
@@ -31193,8 +31350,8 @@
       <c r="P415" t="s">
         <v>29</v>
       </c>
-      <c r="Q415" t="s">
-        <v>2127</v>
+      <c r="Q415" s="1" t="s">
+        <v>2125</v>
       </c>
       <c r="R415" t="s">
         <v>30</v>
@@ -31203,7 +31360,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>84</v>
       </c>
@@ -31249,8 +31406,8 @@
       <c r="P416" t="s">
         <v>29</v>
       </c>
-      <c r="Q416" t="s">
-        <v>2128</v>
+      <c r="Q416" s="1" t="s">
+        <v>2126</v>
       </c>
       <c r="R416" t="s">
         <v>30</v>
@@ -31259,7 +31416,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>84</v>
       </c>
@@ -31306,10 +31463,10 @@
         <v>29</v>
       </c>
       <c r="P417" t="s">
-        <v>2156</v>
-      </c>
-      <c r="Q417" t="s">
-        <v>2129</v>
+        <v>2154</v>
+      </c>
+      <c r="Q417" s="1" t="s">
+        <v>2127</v>
       </c>
       <c r="R417" t="s">
         <v>30</v>
@@ -31318,7 +31475,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>85</v>
       </c>
@@ -31365,10 +31522,10 @@
         <v>29</v>
       </c>
       <c r="P418" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q418" t="s">
-        <v>2130</v>
+        <v>2153</v>
+      </c>
+      <c r="Q418" s="1" t="s">
+        <v>2128</v>
       </c>
       <c r="R418" t="s">
         <v>30</v>
@@ -31377,7 +31534,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>86</v>
       </c>
@@ -31424,10 +31581,10 @@
         <v>29</v>
       </c>
       <c r="P419" t="s">
-        <v>2153</v>
-      </c>
-      <c r="Q419" t="s">
-        <v>2131</v>
+        <v>2151</v>
+      </c>
+      <c r="Q419" s="1" t="s">
+        <v>2129</v>
       </c>
       <c r="R419" t="s">
         <v>30</v>
@@ -31436,7 +31593,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>86</v>
       </c>
@@ -31482,8 +31639,8 @@
       <c r="P420" t="s">
         <v>29</v>
       </c>
-      <c r="Q420" t="s">
-        <v>2132</v>
+      <c r="Q420" s="1" t="s">
+        <v>2130</v>
       </c>
       <c r="R420" t="s">
         <v>30</v>
@@ -31492,7 +31649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>87</v>
       </c>
@@ -31539,10 +31696,10 @@
         <v>29</v>
       </c>
       <c r="P421" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q421" t="s">
-        <v>2133</v>
+        <v>2153</v>
+      </c>
+      <c r="Q421" s="1" t="s">
+        <v>2131</v>
       </c>
       <c r="R421" t="s">
         <v>30</v>
@@ -31551,7 +31708,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>87</v>
       </c>
@@ -31598,10 +31755,10 @@
         <v>29</v>
       </c>
       <c r="P422" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q422" t="s">
-        <v>2134</v>
+        <v>2153</v>
+      </c>
+      <c r="Q422" s="1" t="s">
+        <v>2132</v>
       </c>
       <c r="R422" t="s">
         <v>30</v>
@@ -31610,7 +31767,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>89</v>
       </c>
@@ -31657,10 +31814,10 @@
         <v>29</v>
       </c>
       <c r="P423" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q423" t="s">
-        <v>2135</v>
+        <v>2155</v>
+      </c>
+      <c r="Q423" s="1" t="s">
+        <v>2133</v>
       </c>
       <c r="R423" t="s">
         <v>30</v>
@@ -31669,7 +31826,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>89</v>
       </c>
@@ -31716,10 +31873,10 @@
         <v>29</v>
       </c>
       <c r="P424" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q424" t="s">
-        <v>2136</v>
+        <v>2152</v>
+      </c>
+      <c r="Q424" s="1" t="s">
+        <v>2134</v>
       </c>
       <c r="R424" t="s">
         <v>30</v>
@@ -31728,7 +31885,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>89</v>
       </c>
@@ -31775,10 +31932,10 @@
         <v>29</v>
       </c>
       <c r="P425" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q425" t="s">
-        <v>2137</v>
+        <v>2153</v>
+      </c>
+      <c r="Q425" s="1" t="s">
+        <v>2135</v>
       </c>
       <c r="R425" t="s">
         <v>30</v>
@@ -31787,7 +31944,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>90</v>
       </c>
@@ -31834,10 +31991,10 @@
         <v>162</v>
       </c>
       <c r="P426" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q426" t="s">
-        <v>2138</v>
+        <v>2155</v>
+      </c>
+      <c r="Q426" s="1" t="s">
+        <v>2136</v>
       </c>
       <c r="R426" t="s">
         <v>30</v>
@@ -31846,7 +32003,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>90</v>
       </c>
@@ -31893,10 +32050,10 @@
         <v>29</v>
       </c>
       <c r="P427" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q427" t="s">
-        <v>2139</v>
+        <v>2152</v>
+      </c>
+      <c r="Q427" s="1" t="s">
+        <v>2137</v>
       </c>
       <c r="R427" t="s">
         <v>30</v>
@@ -31905,7 +32062,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>90</v>
       </c>
@@ -31952,10 +32109,10 @@
         <v>29</v>
       </c>
       <c r="P428" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q428" t="s">
-        <v>2140</v>
+        <v>2152</v>
+      </c>
+      <c r="Q428" s="1" t="s">
+        <v>2138</v>
       </c>
       <c r="R428" t="s">
         <v>30</v>
@@ -31964,7 +32121,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>90</v>
       </c>
@@ -32004,20 +32161,26 @@
       <c r="M429" t="s">
         <v>1676</v>
       </c>
+      <c r="N429" s="5" t="s">
+        <v>2165</v>
+      </c>
       <c r="O429" t="s">
         <v>29</v>
       </c>
       <c r="P429" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q429" t="s">
-        <v>2141</v>
+        <v>2155</v>
+      </c>
+      <c r="Q429" s="1" t="s">
+        <v>2139</v>
       </c>
       <c r="R429" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S429">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>90</v>
       </c>
@@ -32064,19 +32227,19 @@
         <v>29</v>
       </c>
       <c r="P430" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q430" t="s">
-        <v>2142</v>
+        <v>2152</v>
+      </c>
+      <c r="Q430" s="1" t="s">
+        <v>2140</v>
       </c>
       <c r="R430" t="s">
         <v>30</v>
       </c>
-      <c r="S430" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S430">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>90</v>
       </c>
@@ -32123,19 +32286,19 @@
         <v>29</v>
       </c>
       <c r="P431" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q431" t="s">
-        <v>2143</v>
+        <v>2152</v>
+      </c>
+      <c r="Q431" s="1" t="s">
+        <v>2141</v>
       </c>
       <c r="R431" t="s">
         <v>30</v>
       </c>
-      <c r="S431" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S431">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>90</v>
       </c>
@@ -32143,13 +32306,13 @@
         <v>431</v>
       </c>
       <c r="C432" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D432" t="s">
         <v>33</v>
       </c>
       <c r="E432" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F432" t="s">
         <v>44</v>
@@ -32173,28 +32336,28 @@
         <v>1666</v>
       </c>
       <c r="M432" t="s">
+        <v>1684</v>
+      </c>
+      <c r="N432" t="s">
         <v>1685</v>
       </c>
-      <c r="N432" t="s">
-        <v>1686</v>
-      </c>
       <c r="O432" t="s">
         <v>29</v>
       </c>
       <c r="P432" t="s">
-        <v>2156</v>
-      </c>
-      <c r="Q432" t="s">
-        <v>2144</v>
+        <v>2154</v>
+      </c>
+      <c r="Q432" s="1" t="s">
+        <v>2142</v>
       </c>
       <c r="R432" t="s">
         <v>30</v>
       </c>
-      <c r="S432" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S432">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>91</v>
       </c>
@@ -32226,28 +32389,34 @@
         <v>47</v>
       </c>
       <c r="K433" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L433" t="s">
         <v>1687</v>
       </c>
-      <c r="L433" t="s">
+      <c r="M433" t="s">
         <v>1688</v>
       </c>
-      <c r="M433" t="s">
-        <v>1689</v>
+      <c r="N433" s="5" t="s">
+        <v>2166</v>
       </c>
       <c r="O433" t="s">
         <v>29</v>
       </c>
       <c r="P433" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q433" t="s">
-        <v>2145</v>
+        <v>2152</v>
+      </c>
+      <c r="Q433" s="1" t="s">
+        <v>2143</v>
       </c>
       <c r="R433" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S433">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>91</v>
       </c>
@@ -32279,34 +32448,34 @@
         <v>47</v>
       </c>
       <c r="K434" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L434" t="s">
         <v>1687</v>
       </c>
-      <c r="L434" t="s">
-        <v>1688</v>
-      </c>
       <c r="M434" t="s">
+        <v>1689</v>
+      </c>
+      <c r="N434" t="s">
         <v>1690</v>
       </c>
-      <c r="N434" t="s">
-        <v>1691</v>
-      </c>
       <c r="O434" t="s">
         <v>29</v>
       </c>
       <c r="P434" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q434" t="s">
-        <v>2146</v>
+        <v>2152</v>
+      </c>
+      <c r="Q434" s="1" t="s">
+        <v>2144</v>
       </c>
       <c r="R434" t="s">
         <v>30</v>
       </c>
-      <c r="S434" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S434">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>92</v>
       </c>
@@ -32338,25 +32507,25 @@
         <v>47</v>
       </c>
       <c r="K435" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L435" t="s">
+        <v>1692</v>
+      </c>
+      <c r="M435" t="s">
         <v>1693</v>
       </c>
-      <c r="L435" t="s">
+      <c r="N435" t="s">
         <v>1694</v>
       </c>
-      <c r="M435" t="s">
-        <v>1695</v>
-      </c>
-      <c r="N435" t="s">
-        <v>1696</v>
-      </c>
       <c r="O435" t="s">
         <v>29</v>
       </c>
       <c r="P435" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q435" t="s">
-        <v>2147</v>
+        <v>2152</v>
+      </c>
+      <c r="Q435" s="1" t="s">
+        <v>2145</v>
       </c>
       <c r="R435" t="s">
         <v>30</v>
@@ -32365,7 +32534,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>92</v>
       </c>
@@ -32373,7 +32542,7 @@
         <v>435</v>
       </c>
       <c r="C436" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D436" t="s">
         <v>135</v>
@@ -32394,34 +32563,34 @@
         <v>47</v>
       </c>
       <c r="K436" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="L436" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="M436" t="s">
+        <v>1696</v>
+      </c>
+      <c r="N436" t="s">
+        <v>1697</v>
+      </c>
+      <c r="O436" t="s">
+        <v>29</v>
+      </c>
+      <c r="P436" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q436" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="R436" t="s">
+        <v>30</v>
+      </c>
+      <c r="S436" t="s">
         <v>1698</v>
       </c>
-      <c r="N436" t="s">
-        <v>1699</v>
-      </c>
-      <c r="O436" t="s">
-        <v>29</v>
-      </c>
-      <c r="P436" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q436" t="s">
-        <v>2148</v>
-      </c>
-      <c r="R436" t="s">
-        <v>30</v>
-      </c>
-      <c r="S436" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>92</v>
       </c>
@@ -32429,13 +32598,13 @@
         <v>436</v>
       </c>
       <c r="C437" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D437" t="s">
         <v>33</v>
       </c>
       <c r="E437" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F437" t="s">
         <v>40</v>
@@ -32453,34 +32622,34 @@
         <v>47</v>
       </c>
       <c r="K437" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="L437" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="M437" t="s">
+        <v>1701</v>
+      </c>
+      <c r="N437" t="s">
+        <v>1702</v>
+      </c>
+      <c r="O437" t="s">
+        <v>29</v>
+      </c>
+      <c r="P437" t="s">
+        <v>2153</v>
+      </c>
+      <c r="Q437" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="R437" t="s">
+        <v>30</v>
+      </c>
+      <c r="S437" t="s">
         <v>1703</v>
       </c>
-      <c r="N437" t="s">
-        <v>1704</v>
-      </c>
-      <c r="O437" t="s">
-        <v>29</v>
-      </c>
-      <c r="P437" t="s">
-        <v>2155</v>
-      </c>
-      <c r="Q437" t="s">
-        <v>2149</v>
-      </c>
-      <c r="R437" t="s">
-        <v>30</v>
-      </c>
-      <c r="S437" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>92</v>
       </c>
@@ -32488,16 +32657,16 @@
         <v>437</v>
       </c>
       <c r="C438" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D438" t="s">
         <v>33</v>
       </c>
       <c r="E438" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F438" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="G438" t="s">
         <v>22</v>
@@ -32512,34 +32681,34 @@
         <v>47</v>
       </c>
       <c r="K438" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="L438" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="M438" t="s">
+        <v>1706</v>
+      </c>
+      <c r="N438" t="s">
+        <v>1707</v>
+      </c>
+      <c r="O438" t="s">
+        <v>29</v>
+      </c>
+      <c r="P438" t="s">
+        <v>2154</v>
+      </c>
+      <c r="Q438" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="R438" t="s">
+        <v>30</v>
+      </c>
+      <c r="S438" t="s">
         <v>1708</v>
       </c>
-      <c r="N438" t="s">
-        <v>1709</v>
-      </c>
-      <c r="O438" t="s">
-        <v>29</v>
-      </c>
-      <c r="P438" t="s">
-        <v>2156</v>
-      </c>
-      <c r="Q438" t="s">
-        <v>2150</v>
-      </c>
-      <c r="R438" t="s">
-        <v>30</v>
-      </c>
-      <c r="S438" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>92</v>
       </c>
@@ -32547,7 +32716,7 @@
         <v>438</v>
       </c>
       <c r="C439" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D439" t="s">
         <v>33</v>
@@ -32571,34 +32740,34 @@
         <v>47</v>
       </c>
       <c r="K439" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="L439" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="M439" t="s">
+        <v>1709</v>
+      </c>
+      <c r="N439" t="s">
+        <v>1710</v>
+      </c>
+      <c r="O439" t="s">
+        <v>29</v>
+      </c>
+      <c r="P439" t="s">
+        <v>2155</v>
+      </c>
+      <c r="Q439" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="R439" t="s">
+        <v>30</v>
+      </c>
+      <c r="S439" t="s">
         <v>1711</v>
       </c>
-      <c r="N439" t="s">
-        <v>1712</v>
-      </c>
-      <c r="O439" t="s">
-        <v>29</v>
-      </c>
-      <c r="P439" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Q439" t="s">
-        <v>2151</v>
-      </c>
-      <c r="R439" t="s">
-        <v>30</v>
-      </c>
-      <c r="S439" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>92</v>
       </c>
@@ -32630,25 +32799,25 @@
         <v>47</v>
       </c>
       <c r="K440" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="L440" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="M440" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="N440" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="O440" t="s">
         <v>29</v>
       </c>
       <c r="P440" t="s">
-        <v>2153</v>
-      </c>
-      <c r="Q440" t="s">
-        <v>2152</v>
+        <v>2151</v>
+      </c>
+      <c r="Q440" s="1" t="s">
+        <v>2150</v>
       </c>
       <c r="R440" t="s">
         <v>30</v>
